--- a/dojo/Tutorials/List.xlsx
+++ b/dojo/Tutorials/List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p95022385\Desktop\CodeGym\dojo\Tutorials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>Getting Started</t>
   </si>
@@ -279,8 +284,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +368,14 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +454,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,16 +665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -667,7 +682,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -679,7 +694,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -690,7 +705,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,7 +716,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -706,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -722,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
@@ -730,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
@@ -738,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
@@ -746,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>71</v>
       </c>
@@ -754,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
@@ -762,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
@@ -770,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
@@ -778,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
@@ -786,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
@@ -794,7 +815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
@@ -802,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" hidden="1">
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
@@ -810,7 +831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" hidden="1">
+    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -818,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" hidden="1">
+    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
@@ -826,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" hidden="1">
+    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
@@ -834,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:3" hidden="1">
+    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -842,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:3" hidden="1">
+    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
@@ -850,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" hidden="1">
+    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
@@ -858,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" hidden="1">
+    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
@@ -866,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" hidden="1">
+    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>74</v>
       </c>
@@ -874,7 +895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" hidden="1">
+    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
@@ -882,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" hidden="1">
+    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>74</v>
       </c>
@@ -890,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" hidden="1">
+    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
@@ -898,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" hidden="1">
+    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
@@ -906,7 +927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" hidden="1">
+    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
@@ -914,7 +935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" hidden="1">
+    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>76</v>
       </c>
@@ -922,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:3" hidden="1">
+    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
@@ -930,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:3" hidden="1">
+    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
@@ -938,7 +959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:3" hidden="1">
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
@@ -946,7 +967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1">
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
@@ -954,7 +975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1">
+    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>76</v>
       </c>
@@ -962,7 +983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1">
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
@@ -970,7 +991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1">
+    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
@@ -978,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1">
+    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -986,7 +1007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1">
+    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
@@ -994,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1">
+    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1">
+    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1">
+    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1">
+    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>77</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1">
+    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1">
+    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>77</v>
       </c>
@@ -1042,7 +1063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1">
+    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1">
+    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1">
+    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>78</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1">
+    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:3" hidden="1">
+    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>78</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:3" hidden="1">
+    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" hidden="1">
+    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:3" hidden="1">
+    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:3" hidden="1">
+    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>78</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:3" hidden="1">
+    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>78</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:3" hidden="1">
+    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>78</v>
       </c>
@@ -1130,7 +1151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:3" hidden="1">
+    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>79</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:3" hidden="1">
+    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:3" hidden="1">
+    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:3" hidden="1">
+    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>80</v>
       </c>
@@ -1162,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:3" hidden="1">
+    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>81</v>
       </c>
@@ -1170,7 +1191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:3" hidden="1">
+    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:3" hidden="1">
+    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>81</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:3" hidden="1">
+    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
@@ -1194,7 +1215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:3" hidden="1">
+    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>81</v>
       </c>
@@ -1202,7 +1223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:3" hidden="1">
+    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>82</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:3" hidden="1">
+    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:3" hidden="1">
+    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
@@ -1226,7 +1247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:3" hidden="1">
+    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
@@ -1248,24 +1269,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dojo/Tutorials/List.xlsx
+++ b/dojo/Tutorials/List.xlsx
@@ -666,12 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -735,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -743,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
@@ -751,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
@@ -759,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
@@ -767,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>71</v>
       </c>
@@ -775,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
@@ -783,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
@@ -791,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
@@ -799,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
@@ -807,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
@@ -815,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
@@ -823,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
@@ -831,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -839,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
@@ -847,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
@@ -855,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
@@ -863,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>74</v>
       </c>
@@ -871,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
@@ -879,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
@@ -887,7 +886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>74</v>
       </c>
@@ -895,7 +894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
@@ -903,7 +902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>74</v>
       </c>
@@ -911,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
@@ -919,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
@@ -927,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
@@ -935,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>76</v>
       </c>
@@ -943,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
@@ -951,7 +950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
@@ -959,7 +958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
@@ -967,7 +966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
@@ -975,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>76</v>
       </c>
@@ -983,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
@@ -991,7 +990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
@@ -999,7 +998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>77</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>77</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>78</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>78</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>78</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>78</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>78</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>78</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>79</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>80</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>81</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>81</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>81</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>82</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
@@ -1256,13 +1255,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F70">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Getting Started"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F70"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
